--- a/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.56</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4731</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005106</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华农业产业股票</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.36</t>
+          <t>60.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>005106</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>银华农业产业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>13.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.38</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>82.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.68</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>8.16</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -614,15 +664,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>78.07</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>6.92</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>75.21</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159827</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华中证农业主题ETF</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97.76</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -734,25 +824,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>84.76</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.60</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -800,15 +910,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>79.48</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.38</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>159827</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>银华中证农业主题ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6743</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3969</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1695,4 +1696,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1704,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,17 +1716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1735,14 +1756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.68</v>
       </c>
     </row>
     <row r="3">
@@ -1751,14 +1794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.2</v>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1767,14 +1832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.51</v>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1783,13 +1870,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>12.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.28</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.68</v>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2298</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2090,14 +2155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.2</v>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2008</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2106,14 +2193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.51</v>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2122,13 +2231,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>12.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2464,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,17 +2476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2495,14 +2516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.77</v>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2511,14 +2554,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2527,14 +2592,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.68</v>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2543,14 +2630,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.2</v>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2559,14 +2668,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.51</v>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2575,13 +2706,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>12.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002157-正邦科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.64</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.28</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>4.68</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>6.2</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>6.51</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>12.66</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1709,366 +1934,6 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7925</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5089</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159865</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.32</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4569</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001027</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源中证大农业指数增强</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3430</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>159867</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.12</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2614</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>180020</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1830</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>516760</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>平安中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>97.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0830</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>516670</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证畜牧养殖ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2144,26 +2009,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>25.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6743</t>
+          <t>1.7925</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2182,26 +2047,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.74</t>
+          <t>20.87</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2703</t>
+          <t>1.5089</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2210,36 +2075,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001027</t>
+          <t>159865</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源中证大农业指数增强</t>
+          <t>国泰中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>99.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3969</t>
+          <t>0.4569</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2248,32 +2113,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>159865</t>
+          <t>001027</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰中证畜牧养殖ETF</t>
+          <t>前海开源中证大农业指数增强</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>98.45</t>
+          <t>92.03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2615</t>
+          <t>0.3430</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2286,36 +2151,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>159867</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>鹏华中证畜牧养殖ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.83</t>
+          <t>97.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2548</t>
+          <t>0.2614</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2324,36 +2189,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159867</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华中证畜牧养殖ETF</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>97.08</t>
+          <t>78.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2192</t>
+          <t>0.1830</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2372,26 +2237,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>96.02</t>
+          <t>97.35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0897</t>
+          <t>0.0830</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2410,26 +2275,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>96.88</t>
+          <t>98.09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0504</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2438,6 +2303,366 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6743</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2703</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3969</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159865</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159867</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516670</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证畜牧养殖ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2683,7 +2908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
